--- a/react-website-bodega/boletas/Boletas estudiantes.xlsx
+++ b/react-website-bodega/boletas/Boletas estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeyki\Desktop\bodega-tec\BODEGA_FRONTEND\react-website-bodega\boletas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F82EE5A-4133-4B48-9B18-2E020885433E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16A243F-8F12-4FDD-89A9-755D80B72717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12163" xr2:uid="{59892FC8-4C31-4DF4-BC32-FCE3D8BCDEAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Solicitante:</t>
   </si>
@@ -75,14 +75,28 @@
   </si>
   <si>
     <t># Lab</t>
+  </si>
+  <si>
+    <t>Firma docente:</t>
+  </si>
+  <si>
+    <t>(de ser requerida)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -242,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -265,6 +279,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -274,42 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +341,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71264D3E-8E51-4874-BF66-AD90AF53631E}">
-  <dimension ref="B7:H26"/>
+  <dimension ref="B7:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,17 +738,17 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="8" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
@@ -828,13 +849,13 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8" s="1" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="6" t="s">
         <v>7</v>
       </c>
@@ -843,24 +864,24 @@
       </c>
     </row>
     <row r="19" spans="2:8" s="1" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="2:8" s="1" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="6" t="s">
         <v>7</v>
       </c>
@@ -869,65 +890,81 @@
       </c>
     </row>
     <row r="21" spans="2:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="16"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="16"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:8" s="1" customFormat="1" ht="42.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="16"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="16"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="19"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C9:E9"/>
